--- a/data/samplesize.xlsx
+++ b/data/samplesize.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd4f7f7812a88fc/excel/example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_4223DB513F031F280848F4273128A209298C2F86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F197A258-D52A-4732-AB05-C1954CE3DB47}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4680"/>
+    <workbookView xWindow="10140" yWindow="120" windowWidth="16410" windowHeight="12705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="사례2" sheetId="2" r:id="rId1"/>
-    <sheet name="사례3" sheetId="3" r:id="rId2"/>
-    <sheet name="사례4" sheetId="4" r:id="rId3"/>
-    <sheet name="사례5" sheetId="5" r:id="rId4"/>
-    <sheet name="사례6" sheetId="6" r:id="rId5"/>
-    <sheet name="사례7" sheetId="7" r:id="rId6"/>
+    <sheet name="사례1" sheetId="2" r:id="rId1"/>
+    <sheet name="사례2" sheetId="3" r:id="rId2"/>
+    <sheet name="사례3" sheetId="4" r:id="rId3"/>
+    <sheet name="사례4" sheetId="5" r:id="rId4"/>
+    <sheet name="사례5" sheetId="6" r:id="rId5"/>
+    <sheet name="사례6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +345,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +431,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +483,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -614,21 +676,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -639,7 +701,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -671,11 +733,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>5.0999999999999996</v>
@@ -688,7 +750,7 @@
         <v>18.746497877908155</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -701,7 +763,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.05</v>
       </c>
@@ -739,11 +801,11 @@
       </c>
       <c r="C9" s="1">
         <f>TINV(A9,G9-1)</f>
-        <v>2.0930240498548649</v>
+        <v>4.3026527297494637</v>
       </c>
       <c r="D9" s="1">
         <f>TINV(B9*2,G9-1)</f>
-        <v>0.86095055037780011</v>
+        <v>1.0606601717798212</v>
       </c>
       <c r="E9" s="1">
         <v>5.0999999999999996</v>
@@ -752,15 +814,15 @@
         <v>3.3</v>
       </c>
       <c r="G9" s="1">
-        <v>20.841356663792588</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
         <f>(C9+D9)^2*E9^2/F9^2</f>
-        <v>20.841356663792588</v>
+        <v>68.703481039969645</v>
       </c>
       <c r="I9" s="1">
         <f>ABS(G9-H9)</f>
-        <v>0</v>
+        <v>65.703481039969645</v>
       </c>
     </row>
   </sheetData>
@@ -775,20 +837,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -799,7 +861,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -831,11 +893,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -848,7 +910,7 @@
         <v>174.41954965220197</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -861,7 +923,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.05</v>
       </c>
@@ -899,11 +961,11 @@
       </c>
       <c r="C9" s="1">
         <f>TINV(A9,2*G9-2)</f>
-        <v>1.9668041527947784</v>
+        <v>2.7764451051977934</v>
       </c>
       <c r="D9" s="1">
         <f>TINV(B9*2,2*G9-2)</f>
-        <v>0.84265532950203492</v>
+        <v>0.94096457723518057</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -912,15 +974,15 @@
         <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>175.40117881960404</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
         <f>2*(C9+D9)^2*E9^2/F9^2</f>
-        <v>175.401390725944</v>
+        <v>307.09188326769834</v>
       </c>
       <c r="I9" s="1">
         <f>ABS(G9-H9)</f>
-        <v>2.1190633995615826E-4</v>
+        <v>304.09188326769834</v>
       </c>
     </row>
   </sheetData>
@@ -934,21 +996,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -960,7 +1022,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -995,11 +1057,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -1015,7 +1077,7 @@
         <v>116.27969976813463</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1091,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.05</v>
       </c>
@@ -1070,11 +1132,11 @@
       </c>
       <c r="C9" s="1">
         <f>TINV(A9,(1+1/G9)*H9-2)</f>
-        <v>1.9753870964124212</v>
+        <v>2.2009851600916384</v>
       </c>
       <c r="D9" s="1">
         <f>TINV(B9*2,(1+1/G9)*H9-2)</f>
-        <v>0.84394635756351644</v>
+        <v>0.87552997807388222</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1086,15 +1148,15 @@
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>117.7670105922132</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
         <f>(1+1/G9)*E9^2*(C9+D9)^2/F9^2</f>
-        <v>117.75764629196874</v>
+        <v>140.22141326461644</v>
       </c>
       <c r="J9" s="1">
         <f>ABS(H9-I9)</f>
-        <v>9.3643002444565582E-3</v>
+        <v>130.22141326461644</v>
       </c>
     </row>
   </sheetData>
@@ -1108,16 +1170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1190,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -1160,11 +1222,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>0.4</v>
@@ -1187,16 +1249,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1208,7 +1270,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -1243,11 +1305,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>0.56000000000000005</v>
@@ -1261,7 +1323,7 @@
       </c>
       <c r="H4" s="1">
         <f>(C4*SQRT(2*G4*(1-G4))+D4*SQRT(E4*(1-E4)+F4*(1-F4)))^2/(E4-F4)^2</f>
-        <v>55.722322353615276</v>
+        <v>55.722322353615262</v>
       </c>
     </row>
   </sheetData>
@@ -1274,16 +1336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1296,7 +1358,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.05</v>
       </c>
@@ -1334,11 +1396,11 @@
       </c>
       <c r="C4" s="1">
         <f>NORMSINV(1-A4/2)</f>
-        <v>1.959963984540054</v>
+        <v>1.9599639845400536</v>
       </c>
       <c r="D4" s="1">
         <f>NORMSINV(1-B4)</f>
-        <v>0.8416212335729143</v>
+        <v>0.84162123357291474</v>
       </c>
       <c r="E4" s="1">
         <v>0.56000000000000005</v>

--- a/data/samplesize.xlsx
+++ b/data/samplesize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bd4f7f7812a88fc/excel/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4223DB513F031F280848F4273128A209298C2F86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F197A258-D52A-4732-AB05-C1954CE3DB47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F9AF1D-6882-4391-84C0-6BCF45388EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="120" windowWidth="16410" windowHeight="12705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="1785" windowWidth="13290" windowHeight="8640" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사례1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="사례4" sheetId="5" r:id="rId4"/>
     <sheet name="사례5" sheetId="6" r:id="rId5"/>
     <sheet name="사례6" sheetId="7" r:id="rId6"/>
+    <sheet name="선거오차범위" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>n2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,22 @@
   </si>
   <si>
     <t>독립인 두 표본 비율차 표본수 (정규분포) - 두 집단의 크기가 다를 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰도, 오차범위, 표본수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰수준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +196,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="\±0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +225,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -303,21 +338,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,14 +374,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="\±0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -356,10 +473,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82F8ECB3-7980-43E8-ADF3-34317D097C7E}" name="표1" displayName="표1" ref="C5:E9" totalsRowShown="0">
+  <autoFilter ref="C5:E9" xr:uid="{82F8ECB3-7980-43E8-ADF3-34317D097C7E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E6BAE310-3862-4826-8C47-57EBCCFFD988}" name="신뢰수준" dataDxfId="2" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{141D03C3-4757-4B51-AD66-10D1E6B5910E}" name="표본수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{26729B6B-C2BE-4998-B297-F9633AD95F58}" name="오차범위" dataDxfId="0" dataCellStyle="백분율">
+      <calculatedColumnFormula>_xlfn.NORM.S.INV(1-(1-C6)/2)*SQRT(0.5*(1-0.5)/D6)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,9 +528,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,26 +563,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,26 +598,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,15 +788,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -751,17 +848,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -788,7 +885,7 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -851,15 +948,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -911,17 +1008,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -948,7 +1045,7 @@
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1011,16 +1108,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1041,7 +1138,7 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1078,18 +1175,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1110,7 +1207,7 @@
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1119,7 +1216,7 @@
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1173,22 +1270,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1259,16 +1356,16 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1346,17 +1443,17 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1380,7 +1477,7 @@
       <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1427,4 +1524,97 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFFD97-812F-4B94-91ED-7FDDDD69B9D4}">
+  <dimension ref="C3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14">
+        <f>_xlfn.NORM.S.INV(1-(1-C6)/2)*SQRT(0.5*(1-0.5)/D6)</f>
+        <v>9.7998199227002689E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="13">
+        <v>500</v>
+      </c>
+      <c r="E7" s="14">
+        <f>_xlfn.NORM.S.INV(1-(1-C7)/2)*SQRT(0.5*(1-0.5)/D7)</f>
+        <v>4.3826127028829071E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14">
+        <f>_xlfn.NORM.S.INV(1-(1-C8)/2)*SQRT(0.5*(1-0.5)/D8)</f>
+        <v>3.0989751615228069E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="14">
+        <f>_xlfn.NORM.S.INV(1-(1-C9)/2)*SQRT(0.5*(1-0.5)/D9)</f>
+        <v>2.1913063514414535E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>